--- a/Documents/S-158-100/1.0.0/Transfers S-158-1xx.xlsx
+++ b/Documents/S-158-100/1.0.0/Transfers S-158-1xx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\S100ValidationChecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\S-100-Validation-Checks\Documents\S-158-100\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6783C0-ED59-4D8C-9147-6AD80515FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94205C79-D541-47D2-BF4B-1A5D33537942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{AE483A2B-7189-4AAB-BB4F-4DE5AF57B7B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="3" xr2:uid="{AE483A2B-7189-4AAB-BB4F-4DE5AF57B7B6}"/>
   </bookViews>
   <sheets>
     <sheet name="S101PT" sheetId="4" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="143">
   <si>
     <t xml:space="preserve">Dev ID </t>
   </si>
@@ -1341,6 +1341,22 @@
       </rPr>
       <t>(Already covered by related check S101_Dev2021?)</t>
     </r>
+  </si>
+  <si>
+    <t>S100_Dev0349</t>
+  </si>
+  <si>
+    <t>For each feature object of geometric primitive point which references more than one vector record</t>
+  </si>
+  <si>
+    <t>Point feature references more than one vector record.</t>
+  </si>
+  <si>
+    <t>Remove references to additional vector 
+records.</t>
+  </si>
+  <si>
+    <t>S-58 check 86. Theoretically permitted by S-100</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1788,6 +1804,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2125,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B165EE9D-6517-4440-A741-8CE52FBA6072}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2732,6 +2763,35 @@
         <v>115</v>
       </c>
       <c r="P13" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="51">
+      <c r="A14" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3505,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2684B14-514A-4026-A849-86FEAB32E59E}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4032,6 +4092,35 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13" spans="1:16" ht="38.25">
+      <c r="A13" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P11 P2:P8" xr:uid="{6992B279-F8F1-4810-9E7D-3A16BF1C1E18}">
